--- a/Input/model_data.xlsx
+++ b/Input/model_data.xlsx
@@ -1,24 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MI\2178\Final_Paper\Final_Paper\Input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F0A55F-658C-4D00-B3D5-F5500F170667}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="17349" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>coal_price</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Treat</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,15 +89,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -113,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -145,9 +179,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,6 +231,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,44 +424,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>oil</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>coal_price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Treat</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>43190</v>
       </c>
@@ -408,15 +470,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>43197</v>
       </c>
       <c r="B3">
-        <v>614.0750000000001</v>
+        <v>614.07500000000005</v>
       </c>
       <c r="C3">
-        <v>614.0750000000001</v>
+        <v>614.07500000000005</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -425,15 +487,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>43204</v>
       </c>
       <c r="B4">
-        <v>587.0083333333333</v>
+        <v>587.00833333333333</v>
       </c>
       <c r="C4">
-        <v>587.0083333333333</v>
+        <v>587.00833333333333</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -442,15 +504,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>43211</v>
       </c>
       <c r="B5">
-        <v>570.4500000000001</v>
+        <v>570.45000000000005</v>
       </c>
       <c r="C5">
-        <v>570.4500000000001</v>
+        <v>570.45000000000005</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -459,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>43218</v>
       </c>
@@ -476,15 +538,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43225</v>
       </c>
       <c r="B7">
-        <v>589.6416666666667</v>
+        <v>589.64166666666665</v>
       </c>
       <c r="C7">
-        <v>589.6416666666667</v>
+        <v>589.64166666666665</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -493,15 +555,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43232</v>
       </c>
       <c r="B8">
-        <v>607.3250000000001</v>
+        <v>607.32500000000005</v>
       </c>
       <c r="C8">
-        <v>607.3250000000001</v>
+        <v>607.32500000000005</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -510,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>43239</v>
       </c>
@@ -527,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>43246</v>
       </c>
@@ -544,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>43253</v>
       </c>
@@ -561,15 +623,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>43260</v>
       </c>
       <c r="B12">
-        <v>685.025</v>
+        <v>685.02499999999998</v>
       </c>
       <c r="C12">
-        <v>685.025</v>
+        <v>685.02499999999998</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -578,15 +640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>43267</v>
       </c>
       <c r="B13">
-        <v>699.8250000000001</v>
+        <v>699.82500000000005</v>
       </c>
       <c r="C13">
-        <v>699.8250000000001</v>
+        <v>699.82500000000005</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -595,15 +657,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43274</v>
       </c>
       <c r="B14">
-        <v>692.3625</v>
+        <v>692.36249999999995</v>
       </c>
       <c r="C14">
-        <v>692.3625</v>
+        <v>692.36249999999995</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -612,15 +674,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>43281</v>
       </c>
       <c r="B15">
-        <v>684.275</v>
+        <v>684.27499999999998</v>
       </c>
       <c r="C15">
-        <v>684.275</v>
+        <v>684.27499999999998</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -629,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>43288</v>
       </c>
@@ -646,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>43295</v>
       </c>
@@ -663,15 +725,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>43302</v>
       </c>
       <c r="B18">
-        <v>670.3250000000001</v>
+        <v>670.32500000000005</v>
       </c>
       <c r="C18">
-        <v>670.3250000000001</v>
+        <v>670.32500000000005</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -680,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>43309</v>
       </c>
@@ -697,15 +759,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>43316</v>
       </c>
       <c r="B20">
-        <v>619.025</v>
+        <v>619.02499999999998</v>
       </c>
       <c r="C20">
-        <v>619.025</v>
+        <v>619.02499999999998</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -714,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>43323</v>
       </c>
@@ -731,15 +793,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>43330</v>
       </c>
       <c r="B22">
-        <v>625.4500000000001</v>
+        <v>625.45000000000005</v>
       </c>
       <c r="C22">
-        <v>625.4500000000001</v>
+        <v>625.45000000000005</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -748,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>43337</v>
       </c>
@@ -765,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>43344</v>
       </c>
@@ -782,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>43351</v>
       </c>
@@ -799,15 +861,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>43358</v>
       </c>
       <c r="B26">
-        <v>632.3</v>
+        <v>632.29999999999995</v>
       </c>
       <c r="C26">
-        <v>632.3</v>
+        <v>632.29999999999995</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -816,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>43365</v>
       </c>
@@ -833,15 +895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>43372</v>
       </c>
       <c r="B28">
-        <v>637.05</v>
+        <v>637.04999999999995</v>
       </c>
       <c r="C28">
-        <v>637.05</v>
+        <v>637.04999999999995</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -850,15 +912,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>43379</v>
       </c>
       <c r="B29">
-        <v>638.05</v>
+        <v>638.04999999999995</v>
       </c>
       <c r="C29">
-        <v>638.05</v>
+        <v>638.04999999999995</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -867,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>43386</v>
       </c>
@@ -884,15 +946,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>43393</v>
       </c>
       <c r="B31">
-        <v>669.725</v>
+        <v>669.72500000000002</v>
       </c>
       <c r="C31">
-        <v>669.725</v>
+        <v>669.72500000000002</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -901,15 +963,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>43400</v>
       </c>
       <c r="B32">
-        <v>667.3250000000001</v>
+        <v>667.32500000000005</v>
       </c>
       <c r="C32">
-        <v>667.3250000000001</v>
+        <v>667.32500000000005</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -918,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>43407</v>
       </c>
@@ -935,15 +997,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>43414</v>
       </c>
       <c r="B34">
-        <v>649.3250000000001</v>
+        <v>649.32500000000005</v>
       </c>
       <c r="C34">
-        <v>649.3250000000001</v>
+        <v>649.32500000000005</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -952,15 +1014,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>43421</v>
       </c>
       <c r="B35">
-        <v>640.4500000000001</v>
+        <v>640.45000000000005</v>
       </c>
       <c r="C35">
-        <v>640.4500000000001</v>
+        <v>640.45000000000005</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -969,15 +1031,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>43428</v>
       </c>
       <c r="B36">
-        <v>631.025</v>
+        <v>631.02499999999998</v>
       </c>
       <c r="C36">
-        <v>631.025</v>
+        <v>631.02499999999998</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -986,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>43435</v>
       </c>
@@ -1003,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>43442</v>
       </c>
@@ -1020,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>43449</v>
       </c>
@@ -1037,15 +1099,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>43456</v>
       </c>
       <c r="B40">
-        <v>610.275</v>
+        <v>610.27499999999998</v>
       </c>
       <c r="C40">
-        <v>610.275</v>
+        <v>610.27499999999998</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1054,15 +1116,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>43463</v>
       </c>
       <c r="B41">
-        <v>588.0583333333334</v>
+        <v>588.05833333333339</v>
       </c>
       <c r="C41">
-        <v>588.0583333333334</v>
+        <v>588.05833333333339</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1071,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>43470</v>
       </c>
@@ -1088,15 +1150,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>43477</v>
       </c>
       <c r="B43">
-        <v>588.975</v>
+        <v>588.97500000000002</v>
       </c>
       <c r="C43">
-        <v>588.975</v>
+        <v>588.97500000000002</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1105,15 +1167,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43484</v>
       </c>
       <c r="B44">
-        <v>587.175</v>
+        <v>587.17499999999995</v>
       </c>
       <c r="C44">
-        <v>587.175</v>
+        <v>587.17499999999995</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1122,15 +1184,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43491</v>
       </c>
       <c r="B45">
-        <v>591.9500000000001</v>
+        <v>591.95000000000005</v>
       </c>
       <c r="C45">
-        <v>591.9500000000001</v>
+        <v>591.95000000000005</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1139,15 +1201,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43498</v>
       </c>
       <c r="B46">
-        <v>589.9416666666666</v>
+        <v>589.94166666666661</v>
       </c>
       <c r="C46">
-        <v>589.9416666666666</v>
+        <v>589.94166666666661</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1156,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>43505</v>
       </c>
@@ -1173,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>43512</v>
       </c>
@@ -1190,15 +1252,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>43519</v>
       </c>
       <c r="B49">
-        <v>602.225</v>
+        <v>602.22500000000002</v>
       </c>
       <c r="C49">
-        <v>602.225</v>
+        <v>602.22500000000002</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1207,15 +1269,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>43526</v>
       </c>
       <c r="B50">
-        <v>608.675</v>
+        <v>608.67499999999995</v>
       </c>
       <c r="C50">
-        <v>608.675</v>
+        <v>608.67499999999995</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1224,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>43533</v>
       </c>
@@ -1241,15 +1303,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>43540</v>
       </c>
       <c r="B52">
-        <v>634.175</v>
+        <v>634.17499999999995</v>
       </c>
       <c r="C52">
-        <v>634.175</v>
+        <v>634.17499999999995</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1258,15 +1320,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>43547</v>
       </c>
       <c r="B53">
-        <v>626.425</v>
+        <v>626.42499999999995</v>
       </c>
       <c r="C53">
-        <v>626.425</v>
+        <v>626.42499999999995</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1275,15 +1337,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>43554</v>
       </c>
       <c r="B54">
-        <v>624.3250000000001</v>
+        <v>624.32500000000005</v>
       </c>
       <c r="C54">
-        <v>624.3250000000001</v>
+        <v>624.32500000000005</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1292,15 +1354,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>43561</v>
       </c>
       <c r="B55">
-        <v>623.9875</v>
+        <v>623.98749999999995</v>
       </c>
       <c r="C55">
-        <v>623.9875</v>
+        <v>623.98749999999995</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1309,15 +1371,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>43568</v>
       </c>
       <c r="B56">
-        <v>627.775</v>
+        <v>627.77499999999998</v>
       </c>
       <c r="C56">
-        <v>627.775</v>
+        <v>627.77499999999998</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1326,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>43575</v>
       </c>
@@ -1343,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>43582</v>
       </c>
@@ -1360,15 +1422,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>43589</v>
       </c>
       <c r="B59">
-        <v>620.1833333333334</v>
+        <v>620.18333333333339</v>
       </c>
       <c r="C59">
-        <v>620.1833333333334</v>
+        <v>620.18333333333339</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1377,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>43596</v>
       </c>
@@ -1394,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>43603</v>
       </c>
@@ -1411,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>43610</v>
       </c>
@@ -1428,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>43617</v>
       </c>
@@ -1445,15 +1507,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>43624</v>
       </c>
       <c r="B64">
-        <v>605.025</v>
+        <v>605.02499999999998</v>
       </c>
       <c r="C64">
-        <v>605.025</v>
+        <v>605.02499999999998</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1462,15 +1524,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>43631</v>
       </c>
       <c r="B65">
-        <v>595.5750000000001</v>
+        <v>595.57500000000005</v>
       </c>
       <c r="C65">
-        <v>595.5750000000001</v>
+        <v>595.57500000000005</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1479,15 +1541,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>43638</v>
       </c>
       <c r="B66">
-        <v>595.225</v>
+        <v>595.22500000000002</v>
       </c>
       <c r="C66">
-        <v>595.225</v>
+        <v>595.22500000000002</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1496,15 +1558,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>43645</v>
       </c>
       <c r="B67">
-        <v>602.175</v>
+        <v>602.17499999999995</v>
       </c>
       <c r="C67">
-        <v>602.175</v>
+        <v>602.17499999999995</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1513,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>43652</v>
       </c>
@@ -1530,15 +1592,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>43659</v>
       </c>
       <c r="B69">
-        <v>607.7000000000001</v>
+        <v>607.70000000000005</v>
       </c>
       <c r="C69">
-        <v>607.7000000000001</v>
+        <v>607.70000000000005</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1547,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>43666</v>
       </c>
@@ -1564,15 +1626,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>43673</v>
       </c>
       <c r="B71">
-        <v>593.675</v>
+        <v>593.67499999999995</v>
       </c>
       <c r="C71">
-        <v>593.675</v>
+        <v>593.67499999999995</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1581,15 +1643,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>43680</v>
       </c>
       <c r="B72">
-        <v>594.425</v>
+        <v>594.42499999999995</v>
       </c>
       <c r="C72">
-        <v>594.425</v>
+        <v>594.42499999999995</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1598,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>43687</v>
       </c>
@@ -1615,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>43694</v>
       </c>
@@ -1632,15 +1694,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>43701</v>
       </c>
       <c r="B75">
-        <v>583.525</v>
+        <v>583.52499999999998</v>
       </c>
       <c r="C75">
-        <v>583.525</v>
+        <v>583.52499999999998</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1649,15 +1711,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>43708</v>
       </c>
       <c r="B76">
-        <v>583.975</v>
+        <v>583.97500000000002</v>
       </c>
       <c r="C76">
-        <v>583.975</v>
+        <v>583.97500000000002</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1666,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>43715</v>
       </c>
@@ -1683,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>43722</v>
       </c>
@@ -1700,15 +1762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>43729</v>
       </c>
       <c r="B79">
-        <v>584.5750000000001</v>
+        <v>584.57500000000005</v>
       </c>
       <c r="C79">
-        <v>584.5750000000001</v>
+        <v>584.57500000000005</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1717,15 +1779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>43736</v>
       </c>
       <c r="B80">
-        <v>585.55</v>
+        <v>585.54999999999995</v>
       </c>
       <c r="C80">
-        <v>585.55</v>
+        <v>585.54999999999995</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1734,15 +1796,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>43743</v>
       </c>
       <c r="B81">
-        <v>585.55</v>
+        <v>585.54999999999995</v>
       </c>
       <c r="C81">
-        <v>585.55</v>
+        <v>585.54999999999995</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1751,15 +1813,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>43750</v>
       </c>
       <c r="B82">
-        <v>584.2000000000001</v>
+        <v>584.20000000000005</v>
       </c>
       <c r="C82">
-        <v>584.2000000000001</v>
+        <v>584.20000000000005</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -1768,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>43757</v>
       </c>
@@ -1785,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>43764</v>
       </c>
@@ -1802,15 +1864,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>43771</v>
       </c>
       <c r="B85">
-        <v>565.5750000000001</v>
+        <v>565.57500000000005</v>
       </c>
       <c r="C85">
-        <v>565.5750000000001</v>
+        <v>565.57500000000005</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1819,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>43778</v>
       </c>
@@ -1836,15 +1898,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>43785</v>
       </c>
       <c r="B87">
-        <v>550.4500000000001</v>
+        <v>550.45000000000005</v>
       </c>
       <c r="C87">
-        <v>550.4500000000001</v>
+        <v>550.45000000000005</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1853,15 +1915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>43792</v>
       </c>
       <c r="B88">
-        <v>550.275</v>
+        <v>550.27499999999998</v>
       </c>
       <c r="C88">
-        <v>550.275</v>
+        <v>550.27499999999998</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1870,15 +1932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>43799</v>
       </c>
       <c r="B89">
-        <v>549.725</v>
+        <v>549.72500000000002</v>
       </c>
       <c r="C89">
-        <v>549.725</v>
+        <v>549.72500000000002</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1887,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>43806</v>
       </c>
@@ -1904,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>43813</v>
       </c>
@@ -1921,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>43820</v>
       </c>
@@ -1938,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>43827</v>
       </c>
@@ -1955,15 +2017,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>43834</v>
       </c>
       <c r="B94">
-        <v>555.0375</v>
+        <v>555.03750000000002</v>
       </c>
       <c r="C94">
-        <v>555.0375</v>
+        <v>555.03750000000002</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1972,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>43841</v>
       </c>
@@ -1989,15 +2051,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>43848</v>
       </c>
       <c r="B96">
-        <v>561.025</v>
+        <v>561.02499999999998</v>
       </c>
       <c r="C96">
-        <v>561.025</v>
+        <v>561.02499999999998</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -2006,15 +2068,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>43855</v>
       </c>
       <c r="B97">
-        <v>561.025</v>
+        <v>561.02499999999998</v>
       </c>
       <c r="C97">
-        <v>561.025</v>
+        <v>561.02499999999998</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2023,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>43869</v>
       </c>
@@ -2040,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>43876</v>
       </c>
@@ -2057,15 +2119,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>43883</v>
       </c>
       <c r="B100">
-        <v>575.675</v>
+        <v>575.67499999999995</v>
       </c>
       <c r="C100">
-        <v>575.675</v>
+        <v>575.67499999999995</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2074,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>43890</v>
       </c>
@@ -2091,15 +2153,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>43897</v>
       </c>
       <c r="B102">
-        <v>570.8</v>
+        <v>570.79999999999995</v>
       </c>
       <c r="C102">
-        <v>570.8</v>
+        <v>570.79999999999995</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2108,15 +2170,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>43904</v>
       </c>
       <c r="B103">
-        <v>563.675</v>
+        <v>563.67499999999995</v>
       </c>
       <c r="C103">
-        <v>563.675</v>
+        <v>563.67499999999995</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2125,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>43911</v>
       </c>
@@ -2142,15 +2204,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>43918</v>
       </c>
       <c r="B105">
-        <v>545.7000000000001</v>
+        <v>545.70000000000005</v>
       </c>
       <c r="C105">
-        <v>545.7000000000001</v>
+        <v>545.70000000000005</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2159,15 +2221,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>43925</v>
       </c>
       <c r="B106">
-        <v>534.525</v>
+        <v>534.52499999999998</v>
       </c>
       <c r="C106">
-        <v>534.525</v>
+        <v>534.52499999999998</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2176,15 +2238,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>43932</v>
       </c>
       <c r="B107">
-        <v>514.7375</v>
+        <v>514.73749999999995</v>
       </c>
       <c r="C107">
-        <v>514.7375</v>
+        <v>514.73749999999995</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2193,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>43939</v>
       </c>
@@ -2210,15 +2272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>43946</v>
       </c>
       <c r="B109">
-        <v>482.225</v>
+        <v>482.22500000000002</v>
       </c>
       <c r="C109">
-        <v>482.225</v>
+        <v>482.22500000000002</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -2227,15 +2289,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>43953</v>
       </c>
       <c r="B110">
-        <v>480.425</v>
+        <v>480.42500000000001</v>
       </c>
       <c r="C110">
-        <v>480.425</v>
+        <v>480.42500000000001</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -2244,15 +2306,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>43960</v>
       </c>
       <c r="B111">
-        <v>471.325</v>
+        <v>471.32499999999999</v>
       </c>
       <c r="C111">
-        <v>471.325</v>
+        <v>471.32499999999999</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -2261,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>43967</v>
       </c>
@@ -2278,15 +2340,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>43974</v>
       </c>
       <c r="B113">
-        <v>513.425</v>
+        <v>513.42499999999995</v>
       </c>
       <c r="C113">
-        <v>513.425</v>
+        <v>513.42499999999995</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2295,15 +2357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>43981</v>
       </c>
       <c r="B114">
-        <v>545.775</v>
+        <v>545.77499999999998</v>
       </c>
       <c r="C114">
-        <v>545.775</v>
+        <v>545.77499999999998</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -2312,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>43988</v>
       </c>
@@ -2329,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>43995</v>
       </c>
@@ -2346,15 +2408,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>44002</v>
       </c>
       <c r="B117">
-        <v>568.175</v>
+        <v>568.17499999999995</v>
       </c>
       <c r="C117">
-        <v>568.175</v>
+        <v>568.17499999999995</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2363,15 +2425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>44009</v>
       </c>
       <c r="B118">
-        <v>568.175</v>
+        <v>568.17499999999995</v>
       </c>
       <c r="C118">
-        <v>568.175</v>
+        <v>568.17499999999995</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2380,15 +2442,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>44016</v>
       </c>
       <c r="B119">
-        <v>573.4500000000001</v>
+        <v>573.45000000000005</v>
       </c>
       <c r="C119">
-        <v>573.4500000000001</v>
+        <v>573.45000000000005</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2397,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>44023</v>
       </c>
@@ -2414,15 +2476,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>44030</v>
       </c>
       <c r="B121">
-        <v>590.775</v>
+        <v>590.77499999999998</v>
       </c>
       <c r="C121">
-        <v>590.775</v>
+        <v>590.77499999999998</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2431,15 +2493,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>44037</v>
       </c>
       <c r="B122">
-        <v>578.3</v>
+        <v>578.29999999999995</v>
       </c>
       <c r="C122">
-        <v>578.3</v>
+        <v>578.29999999999995</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2448,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>44044</v>
       </c>
@@ -2465,15 +2527,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>44051</v>
       </c>
       <c r="B124">
-        <v>566.05</v>
+        <v>566.04999999999995</v>
       </c>
       <c r="C124">
-        <v>566.05</v>
+        <v>566.04999999999995</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2482,15 +2544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>44058</v>
       </c>
       <c r="B125">
-        <v>558.675</v>
+        <v>558.67499999999995</v>
       </c>
       <c r="C125">
-        <v>558.675</v>
+        <v>558.67499999999995</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -2499,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>44065</v>
       </c>
@@ -2516,15 +2578,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>44072</v>
       </c>
       <c r="B127">
-        <v>554.55</v>
+        <v>554.54999999999995</v>
       </c>
       <c r="C127">
-        <v>554.55</v>
+        <v>554.54999999999995</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2533,15 +2595,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>44079</v>
       </c>
       <c r="B128">
-        <v>555.425</v>
+        <v>555.42499999999995</v>
       </c>
       <c r="C128">
-        <v>555.425</v>
+        <v>555.42499999999995</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2550,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>44086</v>
       </c>
@@ -2567,15 +2629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>44093</v>
       </c>
       <c r="B130">
-        <v>585.725</v>
+        <v>585.72500000000002</v>
       </c>
       <c r="C130">
-        <v>585.725</v>
+        <v>585.72500000000002</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2584,15 +2646,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>44100</v>
       </c>
       <c r="B131">
-        <v>594.225</v>
+        <v>594.22500000000002</v>
       </c>
       <c r="C131">
-        <v>594.225</v>
+        <v>594.22500000000002</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2601,15 +2663,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>44107</v>
       </c>
       <c r="B132">
-        <v>596.7375</v>
+        <v>596.73749999999995</v>
       </c>
       <c r="C132">
-        <v>596.7375</v>
+        <v>596.73749999999995</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2618,15 +2680,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>44114</v>
       </c>
       <c r="B133">
-        <v>607.2000000000001</v>
+        <v>607.20000000000005</v>
       </c>
       <c r="C133">
-        <v>607.2000000000001</v>
+        <v>607.20000000000005</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2635,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>44121</v>
       </c>
@@ -2652,15 +2714,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>44128</v>
       </c>
       <c r="B135">
-        <v>609.475</v>
+        <v>609.47500000000002</v>
       </c>
       <c r="C135">
-        <v>609.475</v>
+        <v>609.47500000000002</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2669,15 +2731,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>44135</v>
       </c>
       <c r="B136">
-        <v>605.7000000000001</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="C136">
-        <v>605.7000000000001</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -2686,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>44142</v>
       </c>
@@ -2703,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>44149</v>
       </c>
@@ -2720,15 +2782,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>44156</v>
       </c>
       <c r="B139">
-        <v>616.2000000000001</v>
+        <v>616.20000000000005</v>
       </c>
       <c r="C139">
-        <v>616.2000000000001</v>
+        <v>616.20000000000005</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -2737,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>44163</v>
       </c>
@@ -2754,15 +2816,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>44170</v>
       </c>
       <c r="B141">
-        <v>635.1675</v>
+        <v>635.16750000000002</v>
       </c>
       <c r="C141">
-        <v>635.1675</v>
+        <v>635.16750000000002</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -2771,15 +2833,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>44177</v>
       </c>
       <c r="B142">
-        <v>649.6025</v>
+        <v>649.60249999999996</v>
       </c>
       <c r="C142">
-        <v>649.6025</v>
+        <v>649.60249999999996</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -2788,15 +2850,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>44184</v>
       </c>
       <c r="B143">
-        <v>680.385</v>
+        <v>680.38499999999999</v>
       </c>
       <c r="C143">
-        <v>680.385</v>
+        <v>680.38499999999999</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -2805,15 +2867,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>44191</v>
       </c>
       <c r="B144">
-        <v>749.355</v>
+        <v>749.35500000000002</v>
       </c>
       <c r="C144">
-        <v>749.355</v>
+        <v>749.35500000000002</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -2822,15 +2884,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>44198</v>
       </c>
       <c r="B145">
-        <v>749.355</v>
+        <v>749.35500000000002</v>
       </c>
       <c r="C145">
-        <v>749.355</v>
+        <v>749.35500000000002</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -2839,15 +2901,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>44205</v>
       </c>
       <c r="B146">
-        <v>834.9225</v>
+        <v>834.92250000000001</v>
       </c>
       <c r="C146">
-        <v>834.9225</v>
+        <v>834.92250000000001</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -2856,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>44212</v>
       </c>
@@ -2873,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>44219</v>
       </c>
@@ -2890,15 +2952,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>44226</v>
       </c>
       <c r="B149">
-        <v>861.6625</v>
+        <v>861.66250000000002</v>
       </c>
       <c r="C149">
-        <v>861.6625</v>
+        <v>861.66250000000002</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -2907,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>44233</v>
       </c>
@@ -2924,15 +2986,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>44247</v>
       </c>
       <c r="B151">
-        <v>683.175</v>
+        <v>683.17499999999995</v>
       </c>
       <c r="C151">
-        <v>683.175</v>
+        <v>683.17499999999995</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -2941,15 +3003,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>44254</v>
       </c>
       <c r="B152">
-        <v>586.9875</v>
+        <v>586.98749999999995</v>
       </c>
       <c r="C152">
-        <v>586.9875</v>
+        <v>586.98749999999995</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -2958,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>44261</v>
       </c>
@@ -2975,15 +3037,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>44268</v>
       </c>
       <c r="B154">
-        <v>625.0875</v>
+        <v>625.08749999999998</v>
       </c>
       <c r="C154">
-        <v>625.0875</v>
+        <v>625.08749999999998</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -2992,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>44275</v>
       </c>
@@ -3009,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>44282</v>
       </c>
@@ -3026,15 +3088,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>44289</v>
       </c>
       <c r="B157">
-        <v>716.5875</v>
+        <v>716.58749999999998</v>
       </c>
       <c r="C157">
-        <v>716.5875</v>
+        <v>716.58749999999998</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -3043,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>43190</v>
       </c>
@@ -3060,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>43197</v>
       </c>
@@ -3068,7 +3130,7 @@
         <v>61.95</v>
       </c>
       <c r="C159">
-        <v>614.0750000000001</v>
+        <v>614.07500000000005</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -3077,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>43204</v>
       </c>
@@ -3085,7 +3147,7 @@
         <v>59.68</v>
       </c>
       <c r="C160">
-        <v>587.0083333333333</v>
+        <v>587.00833333333333</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -3094,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>43211</v>
       </c>
@@ -3102,7 +3164,7 @@
         <v>63.81</v>
       </c>
       <c r="C161">
-        <v>570.4500000000001</v>
+        <v>570.45000000000005</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -3111,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>43218</v>
       </c>
@@ -3128,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>43225</v>
       </c>
@@ -3136,7 +3198,7 @@
         <v>64.78</v>
       </c>
       <c r="C163">
-        <v>589.6416666666667</v>
+        <v>589.64166666666665</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -3145,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>43232</v>
       </c>
@@ -3153,7 +3215,7 @@
         <v>66.17</v>
       </c>
       <c r="C164">
-        <v>607.3250000000001</v>
+        <v>607.32500000000005</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -3162,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>43239</v>
       </c>
@@ -3179,12 +3241,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>43246</v>
       </c>
       <c r="B166">
-        <v>69.675</v>
+        <v>69.674999999999997</v>
       </c>
       <c r="C166">
         <v>654.85</v>
@@ -3196,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>43253</v>
       </c>
@@ -3213,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>43260</v>
       </c>
@@ -3221,7 +3283,7 @@
         <v>68.16</v>
       </c>
       <c r="C168">
-        <v>685.025</v>
+        <v>685.02499999999998</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -3230,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>43267</v>
       </c>
@@ -3238,7 +3300,7 @@
         <v>67.53</v>
       </c>
       <c r="C169">
-        <v>699.8250000000001</v>
+        <v>699.82500000000005</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -3247,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>43274</v>
       </c>
@@ -3255,7 +3317,7 @@
         <v>64.84</v>
       </c>
       <c r="C170">
-        <v>692.3625</v>
+        <v>692.36249999999995</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -3264,15 +3326,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>43281</v>
       </c>
       <c r="B171">
-        <v>67.56999999999999</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="C171">
-        <v>684.275</v>
+        <v>684.27499999999998</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -3281,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>43288</v>
       </c>
@@ -3298,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>43295</v>
       </c>
@@ -3315,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>43302</v>
       </c>
@@ -3323,7 +3385,7 @@
         <v>66.3</v>
       </c>
       <c r="C174">
-        <v>670.3250000000001</v>
+        <v>670.32500000000005</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -3332,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>43309</v>
       </c>
@@ -3349,15 +3411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>43316</v>
       </c>
       <c r="B176">
-        <v>65.51000000000001</v>
+        <v>65.510000000000005</v>
       </c>
       <c r="C176">
-        <v>619.025</v>
+        <v>619.02499999999998</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -3366,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>43323</v>
       </c>
@@ -3383,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>43330</v>
       </c>
@@ -3391,7 +3453,7 @@
         <v>63.01</v>
       </c>
       <c r="C178">
-        <v>625.4500000000001</v>
+        <v>625.45000000000005</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -3400,12 +3462,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>43337</v>
       </c>
       <c r="B179">
-        <v>66.09999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="C179">
         <v>620.25</v>
@@ -3417,12 +3479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>43344</v>
       </c>
       <c r="B180">
-        <v>67.99</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="C180">
         <v>622.65</v>
@@ -3434,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>43351</v>
       </c>
@@ -3451,15 +3513,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>43358</v>
       </c>
       <c r="B182">
-        <v>69.51000000000001</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="C182">
-        <v>632.3</v>
+        <v>632.29999999999995</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3468,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>43365</v>
       </c>
@@ -3485,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>43372</v>
       </c>
@@ -3493,7 +3555,7 @@
         <v>73.2</v>
       </c>
       <c r="C184">
-        <v>637.05</v>
+        <v>637.04999999999995</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -3502,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>43379</v>
       </c>
@@ -3510,7 +3572,7 @@
         <v>72.88</v>
       </c>
       <c r="C185">
-        <v>638.05</v>
+        <v>638.04999999999995</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -3519,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>43386</v>
       </c>
@@ -3536,15 +3598,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>43393</v>
       </c>
       <c r="B187">
-        <v>72.615</v>
+        <v>72.614999999999995</v>
       </c>
       <c r="C187">
-        <v>669.725</v>
+        <v>669.72500000000002</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -3553,15 +3615,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>43400</v>
       </c>
       <c r="B188">
-        <v>69.68000000000001</v>
+        <v>69.680000000000007</v>
       </c>
       <c r="C188">
-        <v>667.3250000000001</v>
+        <v>667.32500000000005</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -3570,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>43407</v>
       </c>
@@ -3587,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>43414</v>
       </c>
@@ -3595,7 +3657,7 @@
         <v>64.66</v>
       </c>
       <c r="C190">
-        <v>649.3250000000001</v>
+        <v>649.32500000000005</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -3604,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>43421</v>
       </c>
@@ -3612,7 +3674,7 @@
         <v>58.82</v>
       </c>
       <c r="C191">
-        <v>640.4500000000001</v>
+        <v>640.45000000000005</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -3621,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>43428</v>
       </c>
@@ -3629,7 +3691,7 @@
         <v>55.3</v>
       </c>
       <c r="C192">
-        <v>631.025</v>
+        <v>631.02499999999998</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3638,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>43435</v>
       </c>
@@ -3655,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>43442</v>
       </c>
@@ -3672,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>43449</v>
       </c>
@@ -3689,15 +3751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>43456</v>
       </c>
       <c r="B196">
-        <v>48.985</v>
+        <v>48.984999999999999</v>
       </c>
       <c r="C196">
-        <v>610.275</v>
+        <v>610.27499999999998</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -3706,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>43463</v>
       </c>
@@ -3714,7 +3776,7 @@
         <v>45.05</v>
       </c>
       <c r="C197">
-        <v>588.0583333333334</v>
+        <v>588.05833333333339</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -3723,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>43470</v>
       </c>
@@ -3740,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>43477</v>
       </c>
@@ -3748,7 +3810,7 @@
         <v>53.72</v>
       </c>
       <c r="C199">
-        <v>588.975</v>
+        <v>588.97500000000002</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -3757,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>43484</v>
       </c>
@@ -3765,7 +3827,7 @@
         <v>52.89</v>
       </c>
       <c r="C200">
-        <v>587.175</v>
+        <v>587.17499999999995</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -3774,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>43491</v>
       </c>
@@ -3782,7 +3844,7 @@
         <v>53.63</v>
       </c>
       <c r="C201">
-        <v>591.9500000000001</v>
+        <v>591.95000000000005</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -3791,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>43498</v>
       </c>
@@ -3799,7 +3861,7 @@
         <v>53.46</v>
       </c>
       <c r="C202">
-        <v>589.9416666666666</v>
+        <v>589.94166666666661</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -3808,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>43505</v>
       </c>
@@ -3825,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>43512</v>
       </c>
@@ -3842,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>43519</v>
       </c>
@@ -3850,7 +3912,7 @@
         <v>59.59</v>
       </c>
       <c r="C205">
-        <v>602.225</v>
+        <v>602.22500000000002</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -3859,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>43526</v>
       </c>
@@ -3867,7 +3929,7 @@
         <v>59.78</v>
       </c>
       <c r="C206">
-        <v>608.675</v>
+        <v>608.67499999999995</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -3876,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>43533</v>
       </c>
@@ -3893,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>43540</v>
       </c>
@@ -3901,7 +3963,7 @@
         <v>59.5</v>
       </c>
       <c r="C208">
-        <v>634.175</v>
+        <v>634.17499999999995</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -3910,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>43547</v>
       </c>
@@ -3918,7 +3980,7 @@
         <v>59.9</v>
       </c>
       <c r="C209">
-        <v>626.425</v>
+        <v>626.42499999999995</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -3927,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>43554</v>
       </c>
@@ -3935,7 +3997,7 @@
         <v>60.25</v>
       </c>
       <c r="C210">
-        <v>624.3250000000001</v>
+        <v>624.32500000000005</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -3944,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>43561</v>
       </c>
@@ -3952,7 +4014,7 @@
         <v>61.55</v>
       </c>
       <c r="C211">
-        <v>623.9875</v>
+        <v>623.98749999999995</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -3961,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>43568</v>
       </c>
@@ -3969,7 +4031,7 @@
         <v>63.8</v>
       </c>
       <c r="C212">
-        <v>627.775</v>
+        <v>627.77499999999998</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -3978,12 +4040,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>43575</v>
       </c>
       <c r="B213">
-        <v>64.04000000000001</v>
+        <v>64.040000000000006</v>
       </c>
       <c r="C213">
         <v>629.65</v>
@@ -3995,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>43582</v>
       </c>
@@ -4012,15 +4074,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>43589</v>
       </c>
       <c r="B215">
-        <v>64.43000000000001</v>
+        <v>64.430000000000007</v>
       </c>
       <c r="C215">
-        <v>620.1833333333334</v>
+        <v>620.18333333333339</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -4029,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>43596</v>
       </c>
@@ -4046,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>43603</v>
       </c>
@@ -4063,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>43610</v>
       </c>
@@ -4080,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>43617</v>
       </c>
@@ -4097,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>43624</v>
       </c>
@@ -4105,7 +4167,7 @@
         <v>57.34</v>
       </c>
       <c r="C220">
-        <v>605.025</v>
+        <v>605.02499999999998</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -4114,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>43631</v>
       </c>
@@ -4122,7 +4184,7 @@
         <v>54.36</v>
       </c>
       <c r="C221">
-        <v>595.5750000000001</v>
+        <v>595.57500000000005</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -4131,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>43638</v>
       </c>
@@ -4139,7 +4201,7 @@
         <v>56.5</v>
       </c>
       <c r="C222">
-        <v>595.225</v>
+        <v>595.22500000000002</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -4148,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>43645</v>
       </c>
@@ -4156,7 +4218,7 @@
         <v>58.87</v>
       </c>
       <c r="C223">
-        <v>602.175</v>
+        <v>602.17499999999995</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -4165,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>43652</v>
       </c>
@@ -4182,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>43659</v>
       </c>
@@ -4190,7 +4252,7 @@
         <v>57.44</v>
       </c>
       <c r="C225">
-        <v>607.7000000000001</v>
+        <v>607.70000000000005</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -4199,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>43666</v>
       </c>
@@ -4216,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>43673</v>
       </c>
@@ -4224,7 +4286,7 @@
         <v>57.44</v>
       </c>
       <c r="C227">
-        <v>593.675</v>
+        <v>593.67499999999995</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -4233,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>43680</v>
       </c>
@@ -4241,7 +4303,7 @@
         <v>56.6</v>
       </c>
       <c r="C228">
-        <v>594.425</v>
+        <v>594.42499999999995</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -4250,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>43687</v>
       </c>
@@ -4267,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>43694</v>
       </c>
@@ -4284,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>43701</v>
       </c>
@@ -4292,7 +4354,7 @@
         <v>55.43</v>
       </c>
       <c r="C231">
-        <v>583.525</v>
+        <v>583.52499999999998</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -4301,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>43708</v>
       </c>
@@ -4309,7 +4371,7 @@
         <v>61.82</v>
       </c>
       <c r="C232">
-        <v>583.975</v>
+        <v>583.97500000000002</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -4318,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>43715</v>
       </c>
@@ -4335,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>43722</v>
       </c>
@@ -4352,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>43729</v>
       </c>
@@ -4360,7 +4422,7 @@
         <v>66.75</v>
       </c>
       <c r="C235">
-        <v>584.5750000000001</v>
+        <v>584.57500000000005</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -4369,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>43736</v>
       </c>
@@ -4377,7 +4439,7 @@
         <v>66.58</v>
       </c>
       <c r="C236">
-        <v>585.55</v>
+        <v>585.54999999999995</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -4386,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>43743</v>
       </c>
@@ -4394,7 +4456,7 @@
         <v>64.36</v>
       </c>
       <c r="C237">
-        <v>585.55</v>
+        <v>585.54999999999995</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -4403,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>43750</v>
       </c>
@@ -4411,7 +4473,7 @@
         <v>62.47</v>
       </c>
       <c r="C238">
-        <v>584.2000000000001</v>
+        <v>584.20000000000005</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -4420,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>43757</v>
       </c>
@@ -4437,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>43764</v>
       </c>
@@ -4454,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>43771</v>
       </c>
@@ -4462,7 +4524,7 @@
         <v>63.95</v>
       </c>
       <c r="C241">
-        <v>565.5750000000001</v>
+        <v>565.57500000000005</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -4471,12 +4533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>43778</v>
       </c>
       <c r="B242">
-        <v>66.18000000000001</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="C242">
         <v>552.4</v>
@@ -4488,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>43785</v>
       </c>
@@ -4496,7 +4558,7 @@
         <v>66.09</v>
       </c>
       <c r="C243">
-        <v>550.4500000000001</v>
+        <v>550.45000000000005</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -4505,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>43792</v>
       </c>
@@ -4513,7 +4575,7 @@
         <v>65.48</v>
       </c>
       <c r="C244">
-        <v>550.275</v>
+        <v>550.27499999999998</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -4522,15 +4584,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>43799</v>
       </c>
       <c r="B245">
-        <v>67.68000000000001</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="C245">
-        <v>549.725</v>
+        <v>549.72500000000002</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -4539,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>43806</v>
       </c>
@@ -4556,12 +4618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>43813</v>
       </c>
       <c r="B247">
-        <v>68.09999999999999</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C247">
         <v>548.35</v>
@@ -4573,12 +4635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>43820</v>
       </c>
       <c r="B248">
-        <v>69.37000000000001</v>
+        <v>69.37</v>
       </c>
       <c r="C248">
         <v>548.1</v>
@@ -4590,12 +4652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>43827</v>
       </c>
       <c r="B249">
-        <v>70.37000000000001</v>
+        <v>70.37</v>
       </c>
       <c r="C249">
         <v>551</v>
@@ -4607,15 +4669,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>43834</v>
       </c>
       <c r="B250">
-        <v>73.74</v>
+        <v>73.739999999999995</v>
       </c>
       <c r="C250">
-        <v>555.0375</v>
+        <v>555.03750000000002</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -4624,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>43841</v>
       </c>
@@ -4641,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>43848</v>
       </c>
@@ -4649,7 +4711,7 @@
         <v>69.8</v>
       </c>
       <c r="C252">
-        <v>561.025</v>
+        <v>561.02499999999998</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -4658,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>43855</v>
       </c>
@@ -4666,7 +4728,7 @@
         <v>67.92</v>
       </c>
       <c r="C253">
-        <v>561.025</v>
+        <v>561.02499999999998</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -4675,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>43869</v>
       </c>
@@ -4692,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>43876</v>
       </c>
@@ -4709,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>43883</v>
       </c>
@@ -4717,7 +4779,7 @@
         <v>61.64</v>
       </c>
       <c r="C256">
-        <v>575.675</v>
+        <v>575.67499999999995</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -4726,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>43890</v>
       </c>
@@ -4743,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>43897</v>
       </c>
@@ -4751,7 +4813,7 @@
         <v>56</v>
       </c>
       <c r="C258">
-        <v>570.8</v>
+        <v>570.79999999999995</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -4760,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>43904</v>
       </c>
@@ -4768,7 +4830,7 @@
         <v>40.85</v>
       </c>
       <c r="C259">
-        <v>563.675</v>
+        <v>563.67499999999995</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -4777,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>43911</v>
       </c>
@@ -4794,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>43918</v>
       </c>
@@ -4802,7 +4864,7 @@
         <v>30.82</v>
       </c>
       <c r="C261">
-        <v>545.7000000000001</v>
+        <v>545.70000000000005</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -4811,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>43925</v>
       </c>
@@ -4819,7 +4881,7 @@
         <v>31.06</v>
       </c>
       <c r="C262">
-        <v>534.525</v>
+        <v>534.52499999999998</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -4828,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>43932</v>
       </c>
@@ -4836,7 +4898,7 @@
         <v>35.67</v>
       </c>
       <c r="C263">
-        <v>514.7375</v>
+        <v>514.73749999999995</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -4845,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>43939</v>
       </c>
@@ -4862,15 +4924,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>43946</v>
       </c>
       <c r="B265">
-        <v>19.67</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="C265">
-        <v>482.225</v>
+        <v>482.22500000000002</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -4879,15 +4941,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>43953</v>
       </c>
       <c r="B266">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C266">
-        <v>480.425</v>
+        <v>480.42500000000001</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -4896,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>43960</v>
       </c>
@@ -4904,7 +4966,7 @@
         <v>27.45</v>
       </c>
       <c r="C267">
-        <v>471.325</v>
+        <v>471.32499999999999</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -4913,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>43967</v>
       </c>
@@ -4930,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>43974</v>
       </c>
@@ -4938,7 +5000,7 @@
         <v>34.46</v>
       </c>
       <c r="C269">
-        <v>513.425</v>
+        <v>513.42499999999995</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -4947,15 +5009,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>43981</v>
       </c>
       <c r="B270">
-        <v>35.02</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="C270">
-        <v>545.775</v>
+        <v>545.77499999999998</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -4964,12 +5026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>43988</v>
       </c>
       <c r="B271">
-        <v>40.12</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="C271">
         <v>545.75</v>
@@ -4981,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>43995</v>
       </c>
@@ -4998,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>44002</v>
       </c>
@@ -5006,7 +5068,7 @@
         <v>43.13</v>
       </c>
       <c r="C273">
-        <v>568.175</v>
+        <v>568.17499999999995</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -5015,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>44009</v>
       </c>
@@ -5023,7 +5085,7 @@
         <v>40.89</v>
       </c>
       <c r="C274">
-        <v>568.175</v>
+        <v>568.17499999999995</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -5032,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>44016</v>
       </c>
@@ -5040,7 +5102,7 @@
         <v>43.03</v>
       </c>
       <c r="C275">
-        <v>573.4500000000001</v>
+        <v>573.45000000000005</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -5049,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>44023</v>
       </c>
@@ -5066,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>44030</v>
       </c>
@@ -5074,7 +5136,7 @@
         <v>43.67</v>
       </c>
       <c r="C277">
-        <v>590.775</v>
+        <v>590.77499999999998</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -5083,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>44037</v>
       </c>
@@ -5091,7 +5153,7 @@
         <v>45.59</v>
       </c>
       <c r="C278">
-        <v>578.3</v>
+        <v>578.29999999999995</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -5100,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>44044</v>
       </c>
@@ -5117,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>44051</v>
       </c>
@@ -5125,7 +5187,7 @@
         <v>46.21</v>
       </c>
       <c r="C280">
-        <v>566.05</v>
+        <v>566.04999999999995</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -5134,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>44058</v>
       </c>
@@ -5142,7 +5204,7 @@
         <v>46.98</v>
       </c>
       <c r="C281">
-        <v>558.675</v>
+        <v>558.67499999999995</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -5151,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>44065</v>
       </c>
@@ -5168,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>44072</v>
       </c>
@@ -5176,7 +5238,7 @@
         <v>46.69</v>
       </c>
       <c r="C283">
-        <v>554.55</v>
+        <v>554.54999999999995</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -5185,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>44079</v>
       </c>
@@ -5193,7 +5255,7 @@
         <v>45.17</v>
       </c>
       <c r="C284">
-        <v>555.425</v>
+        <v>555.42499999999995</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -5202,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>44086</v>
       </c>
@@ -5219,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>44093</v>
       </c>
@@ -5227,7 +5289,7 @@
         <v>42.94</v>
       </c>
       <c r="C286">
-        <v>585.725</v>
+        <v>585.72500000000002</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -5236,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>44100</v>
       </c>
@@ -5244,7 +5306,7 @@
         <v>41</v>
       </c>
       <c r="C287">
-        <v>594.225</v>
+        <v>594.22500000000002</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -5253,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>44107</v>
       </c>
@@ -5261,7 +5323,7 @@
         <v>41.73</v>
       </c>
       <c r="C288">
-        <v>596.7375</v>
+        <v>596.73749999999995</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -5270,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>44114</v>
       </c>
@@ -5278,7 +5340,7 @@
         <v>39.44</v>
       </c>
       <c r="C289">
-        <v>607.2000000000001</v>
+        <v>607.20000000000005</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -5287,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>44121</v>
       </c>
@@ -5304,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>44128</v>
       </c>
@@ -5312,7 +5374,7 @@
         <v>42.24</v>
       </c>
       <c r="C291">
-        <v>609.475</v>
+        <v>609.47500000000002</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -5321,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>44135</v>
       </c>
@@ -5329,7 +5391,7 @@
         <v>38.46</v>
       </c>
       <c r="C292">
-        <v>605.7000000000001</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -5338,12 +5400,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>44142</v>
       </c>
       <c r="B293">
-        <v>40.63</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="C293">
         <v>614.25</v>
@@ -5355,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>44149</v>
       </c>
@@ -5372,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>44156</v>
       </c>
@@ -5380,7 +5442,7 @@
         <v>45.17</v>
       </c>
       <c r="C295">
-        <v>616.2000000000001</v>
+        <v>616.20000000000005</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -5389,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>44163</v>
       </c>
@@ -5406,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>44170</v>
       </c>
@@ -5414,7 +5476,7 @@
         <v>48.2</v>
       </c>
       <c r="C297">
-        <v>635.1675</v>
+        <v>635.16750000000002</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -5423,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>44177</v>
       </c>
@@ -5431,7 +5493,7 @@
         <v>49.4</v>
       </c>
       <c r="C298">
-        <v>649.6025</v>
+        <v>649.60249999999996</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -5440,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>44184</v>
       </c>
@@ -5448,7 +5510,7 @@
         <v>51.11</v>
       </c>
       <c r="C299">
-        <v>680.385</v>
+        <v>680.38499999999999</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -5457,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>44191</v>
       </c>
@@ -5465,7 +5527,7 @@
         <v>51.97</v>
       </c>
       <c r="C300">
-        <v>749.355</v>
+        <v>749.35500000000002</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -5474,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>44198</v>
       </c>
@@ -5482,7 +5544,7 @@
         <v>52.66</v>
       </c>
       <c r="C301">
-        <v>749.355</v>
+        <v>749.35500000000002</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -5491,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>44205</v>
       </c>
@@ -5499,7 +5561,7 @@
         <v>55.11</v>
       </c>
       <c r="C302">
-        <v>834.9225</v>
+        <v>834.92250000000001</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -5508,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>44212</v>
       </c>
@@ -5525,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>44219</v>
       </c>
@@ -5542,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>44226</v>
       </c>
@@ -5550,7 +5612,7 @@
         <v>56.73</v>
       </c>
       <c r="C305">
-        <v>861.6625</v>
+        <v>861.66250000000002</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -5559,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>44233</v>
       </c>
@@ -5576,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>44247</v>
       </c>
@@ -5584,7 +5646,7 @@
         <v>64.75</v>
       </c>
       <c r="C307">
-        <v>683.175</v>
+        <v>683.17499999999995</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -5593,15 +5655,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>44254</v>
       </c>
       <c r="B308">
-        <v>67.87000000000001</v>
+        <v>67.87</v>
       </c>
       <c r="C308">
-        <v>586.9875</v>
+        <v>586.98749999999995</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -5610,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>44261</v>
       </c>
@@ -5627,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>44268</v>
       </c>
@@ -5635,7 +5697,7 @@
         <v>72.16</v>
       </c>
       <c r="C310">
-        <v>625.0875</v>
+        <v>625.08749999999998</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -5644,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>44275</v>
       </c>
@@ -5661,12 +5723,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>44282</v>
       </c>
       <c r="B312">
-        <v>64.74</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="C312">
         <v>665.625</v>
@@ -5678,15 +5740,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>44289</v>
       </c>
       <c r="B313">
-        <v>64.01000000000001</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="C313">
-        <v>716.5875</v>
+        <v>716.58749999999998</v>
       </c>
       <c r="D313">
         <v>0</v>
